--- a/exsel_sa.xlsx
+++ b/exsel_sa.xlsx
@@ -16,6 +16,17 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>ot</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -332,168 +343,176 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
-        <v>0.34027777777777773</v>
-      </c>
-      <c r="B1" s="1">
-        <v>0.35416666666666669</v>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>0.38194444444444442</v>
+        <v>0.34027777777777773</v>
       </c>
       <c r="B2" s="1">
-        <v>0.39583333333333331</v>
+        <v>0.35416666666666669</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>0.41319444444444442</v>
+        <v>0.38194444444444442</v>
       </c>
       <c r="B3" s="1">
-        <v>0.42708333333333331</v>
+        <v>0.39583333333333331</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>0.4375</v>
+        <v>0.41319444444444442</v>
       </c>
       <c r="B4" s="1">
-        <v>0.4513888888888889</v>
+        <v>0.42708333333333331</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>0.49305555555555558</v>
+        <v>0.4375</v>
       </c>
       <c r="B5" s="1">
-        <v>0.50694444444444442</v>
+        <v>0.4513888888888889</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>0.50347222222222221</v>
+        <v>0.49305555555555558</v>
       </c>
       <c r="B6" s="1">
-        <v>0.52222222222222225</v>
+        <v>0.50694444444444442</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>0.53819444444444442</v>
+        <v>0.50347222222222221</v>
       </c>
       <c r="B7" s="1">
-        <v>0.55208333333333337</v>
+        <v>0.52222222222222225</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>0.59722222222222221</v>
+        <v>0.53819444444444442</v>
       </c>
       <c r="B8" s="1">
-        <v>0.61249999999999993</v>
+        <v>0.55208333333333337</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>0.66666666666666663</v>
+        <v>0.59722222222222221</v>
       </c>
       <c r="B9" s="1">
-        <v>0.6791666666666667</v>
+        <v>0.61249999999999993</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>0.71180555555555547</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="B10" s="1">
-        <v>0.72916666666666663</v>
+        <v>0.6791666666666667</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>0.76041666666666663</v>
+        <v>0.71180555555555547</v>
       </c>
       <c r="B11" s="1">
-        <v>0.77430555555555547</v>
+        <v>0.72916666666666663</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>0.79861111111111116</v>
+        <v>0.76041666666666663</v>
       </c>
       <c r="B12" s="1">
-        <v>0.81388888888888899</v>
+        <v>0.77430555555555547</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>0.81944444444444453</v>
+        <v>0.79861111111111116</v>
       </c>
       <c r="B13" s="1">
-        <v>0.83333333333333337</v>
+        <v>0.81388888888888899</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>0.85416666666666663</v>
+        <v>0.81944444444444453</v>
       </c>
       <c r="B14" s="1">
-        <v>0.86805555555555547</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="B15" s="1">
         <v>0.86805555555555547</v>
-      </c>
-      <c r="B15" s="1">
-        <v>0.87916666666666676</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>0.88194444444444453</v>
+        <v>0.86805555555555547</v>
       </c>
       <c r="B16" s="1">
-        <v>0.89444444444444438</v>
+        <v>0.87916666666666676</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>0.92013888888888884</v>
+        <v>0.88194444444444453</v>
       </c>
       <c r="B17" s="1">
-        <v>0.93194444444444446</v>
+        <v>0.89444444444444438</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>0.95138888888888884</v>
+        <v>0.92013888888888884</v>
       </c>
       <c r="B18" s="1">
-        <v>0.96319444444444446</v>
+        <v>0.93194444444444446</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
+        <v>0.95138888888888884</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.96319444444444446</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>0.99305555555555547</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B20" s="1">
         <v>8.3333333333333332E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="1">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="1">
         <v>4.6527777777777779E-2</v>
       </c>
     </row>

--- a/exsel_sa.xlsx
+++ b/exsel_sa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -343,10 +343,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -393,15 +393,15 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>0.49305555555555558</v>
+        <v>0.48958333333333331</v>
       </c>
       <c r="B6" s="1">
-        <v>0.50694444444444442</v>
+        <v>0.50347222222222221</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>0.50347222222222221</v>
+        <v>0.50694444444444442</v>
       </c>
       <c r="B7" s="1">
         <v>0.52222222222222225</v>
@@ -409,10 +409,10 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>0.53819444444444442</v>
+        <v>0.55208333333333337</v>
       </c>
       <c r="B8" s="1">
-        <v>0.55208333333333337</v>
+        <v>0.56388888888888888</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -420,31 +420,31 @@
         <v>0.59722222222222221</v>
       </c>
       <c r="B9" s="1">
-        <v>0.61249999999999993</v>
+        <v>0.61111111111111105</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>0.66666666666666663</v>
+        <v>0.66319444444444442</v>
       </c>
       <c r="B10" s="1">
-        <v>0.6791666666666667</v>
+        <v>0.67708333333333337</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>0.71180555555555547</v>
+        <v>0.71527777777777779</v>
       </c>
       <c r="B11" s="1">
-        <v>0.72916666666666663</v>
+        <v>0.7284722222222223</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>0.76041666666666663</v>
+        <v>0.76388888888888884</v>
       </c>
       <c r="B12" s="1">
-        <v>0.77430555555555547</v>
+        <v>0.77986111111111101</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -452,7 +452,7 @@
         <v>0.79861111111111116</v>
       </c>
       <c r="B13" s="1">
-        <v>0.81388888888888899</v>
+        <v>0.81180555555555556</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -465,42 +465,42 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>0.85416666666666663</v>
+        <v>0.84027777777777779</v>
       </c>
       <c r="B15" s="1">
-        <v>0.86805555555555547</v>
+        <v>0.8520833333333333</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="B16" s="1">
         <v>0.86805555555555547</v>
-      </c>
-      <c r="B16" s="1">
-        <v>0.87916666666666676</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>0.88194444444444453</v>
+        <v>0.87152777777777779</v>
       </c>
       <c r="B17" s="1">
-        <v>0.89444444444444438</v>
+        <v>0.8833333333333333</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>0.92013888888888884</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="B18" s="1">
-        <v>0.93194444444444446</v>
+        <v>0.90277777777777779</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>0.95138888888888884</v>
+        <v>0.92013888888888884</v>
       </c>
       <c r="B19" s="1">
-        <v>0.96319444444444446</v>
+        <v>0.93472222222222223</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -508,12 +508,20 @@
         <v>0.99305555555555547</v>
       </c>
       <c r="B20" s="1">
-        <v>8.3333333333333332E-3</v>
+        <v>0.96388888888888891</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>3.472222222222222E-3</v>
+      </c>
       <c r="B21" s="1">
-        <v>4.6527777777777779E-2</v>
+        <v>1.7361111111111112E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="1">
+        <v>5.6250000000000001E-2</v>
       </c>
     </row>
   </sheetData>
